--- a/Documentação/Tabelas_LN/tcmcs010-Paises.xlsx
+++ b/Documentação/Tabelas_LN/tcmcs010-Paises.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="630" yWindow="810" windowWidth="19575" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2487,8 +2487,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
